--- a/pythonmailerv1.6/HtmlData.xlsx
+++ b/pythonmailerv1.6/HtmlData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">F Name</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Id3</t>
   </si>
   <si>
+    <t xml:space="preserve">Body</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mahidul Moon</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">mahidulmoon@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please let me know if you have any spare time this day to discuss this further. I eagerly await your response and the possibility of working together.</t>
   </si>
   <si>
     <t xml:space="preserve">jh</t>
@@ -97,7 +103,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -128,19 +134,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,12 +180,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,15 +197,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,147 +287,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1700000000</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>45069</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>1700087987</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
